--- a/InputData/elec/TCCpUCD/Trans Const Cost per Unit Cap Dist.xlsx
+++ b/InputData/elec/TCCpUCD/Trans Const Cost per Unit Cap Dist.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipI - units progress\InputData\elec\TCCpUCD\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="192" yWindow="96" windowWidth="17220" windowHeight="8208"/>
+    <workbookView xWindow="195" yWindow="98" windowWidth="17220" windowHeight="8205"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
     <sheet name="TCCpUCD" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" iterate="1" iterateDelta="1.0000000000000001E-5"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -99,7 +104,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -280,6 +285,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -327,7 +335,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -362,7 +370,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -575,17 +583,17 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="44.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -593,47 +601,47 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B4" s="2">
         <v>2012</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" s="12" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A10" s="11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="12">
         <v>1.0549999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="12" t="s">
         <v>20</v>
       </c>
@@ -652,29 +660,29 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="25.21875" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" customWidth="1"/>
+    <col min="1" max="1" width="25.19921875" customWidth="1"/>
+    <col min="2" max="2" width="11.53125" customWidth="1"/>
     <col min="3" max="3" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
@@ -685,7 +693,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -700,7 +708,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -712,7 +720,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -724,7 +732,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -736,7 +744,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" s="12" t="s">
         <v>13</v>
       </c>
@@ -762,18 +770,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="24.88671875" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" customWidth="1"/>
+    <col min="1" max="1" width="24.86328125" customWidth="1"/>
+    <col min="2" max="2" width="11.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -1040,13 +1048,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCDE6DB9-54D9-434D-A8D7-AE9771161A3C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{300A1BA1-7A44-4A68-BCE6-F677E6F8C09E}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06551453-4F38-4150-93CE-342D6C9BF4A1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B7DE4C7-A79D-4C22-8262-B320D82CC226}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C831E3FE-3B65-432C-95C2-C6AACD070D51}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9675A698-FC6C-4864-917C-3B0A3B2D63D0}"/>
 </file>